--- a/data/case1/20/Q_device_1.xlsx
+++ b/data/case1/20/Q_device_1.xlsx
@@ -56,48 +56,48 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
     <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.0083045374871389792</v>
+        <v>-0.043659189892190989</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.0081378185756557295</v>
+        <v>-0.042454134145798315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.034935973459750455</v>
+        <v>-0.016961780446142133</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.04197305939443062</v>
+        <v>-0.012601184040415367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.01372875689806057</v>
+        <v>-0.018181246521458031</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.026821416593642889</v>
+        <v>-0.0060624633259771391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.021876679187231702</v>
+        <v>-0.077187587239905278</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.021655585770225229</v>
+        <v>-0.076486373405838345</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.060602297507913946</v>
+        <v>-0.034728083286631205</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.060581630268342436</v>
+        <v>-0.014122491216763487</v>
       </c>
     </row>
   </sheetData>
